--- a/results/R_gene_lists/d14_FRC_subtype_ova_GO.xlsx
+++ b/results/R_gene_lists/d14_FRC_subtype_ova_GO.xlsx
@@ -6,12 +6,12 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="neg-CD34+SC" r:id="rId3" sheetId="1"/>
-    <sheet name="pos-CD34+SC" r:id="rId4" sheetId="2"/>
-    <sheet name="neg-Nr4a1+SC" r:id="rId5" sheetId="3"/>
-    <sheet name="pos-Nr4a1+SC" r:id="rId6" sheetId="4"/>
-    <sheet name="neg-unassigned" r:id="rId7" sheetId="5"/>
-    <sheet name="pos-FDC" r:id="rId8" sheetId="6"/>
+    <sheet name="low-CD34+SC" r:id="rId3" sheetId="1"/>
+    <sheet name="high-CD34+SC" r:id="rId4" sheetId="2"/>
+    <sheet name="low-Nr4a1+SC" r:id="rId5" sheetId="3"/>
+    <sheet name="high-Nr4a1+SC" r:id="rId6" sheetId="4"/>
+    <sheet name="high-unassigned" r:id="rId7" sheetId="5"/>
+    <sheet name="high-FDC" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
